--- a/lci-Tres-Quebradas.xlsx
+++ b/lci-Tres-Quebradas.xlsx
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>0.03822880416081569</v>
+        <v>-0.0312111470337182</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.02009155235488012</v>
+        <v>0.0003013732853232021</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
